--- a/modele/ecs.xlsx
+++ b/modele/ecs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\action-21\reno-audit\modele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666CF506-E116-4759-A44B-E66E158FD719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433556BD-F314-446E-9CCD-B43157CDC0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" activeTab="7" xr2:uid="{BF4EE783-D743-4B41-B65A-54CFF4809DA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" activeTab="14" xr2:uid="{BF4EE783-D743-4B41-B65A-54CFF4809DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="70" r:id="rId1"/>
@@ -2001,41 +2001,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="142">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2621,6 +2586,41 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2821,94 +2821,94 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C8FEC859-F82F-4A63-B073-EFF34F164228}" name="rd" displayName="rd" ref="A1:F11" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C8FEC859-F82F-4A63-B073-EFF34F164228}" name="rd" displayName="rd" ref="A1:F11" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A1:F11" xr:uid="{C8FEC859-F82F-4A63-B073-EFF34F164228}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{7AE20D01-5E7E-4885-8DAA-8A7973B0229F}" name="reseau_collectif" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{F005B1DD-C48C-4C57-9971-1F42741AC520}" name="bouclage_reseau" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{F67A3A5E-5D5C-4F82-A5A0-C2DA2371A19C}" name="alimentation_contigue" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{8AA781C3-4B7D-4CC0-9E5E-356E19D0C5D3}" name="production_volume_habitable" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{22737494-2166-4C25-9328-32242EA6F05C}" name="rd" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{235B164F-DE43-417D-9A0D-D34CB5C6FF97}" name="tv_rendement_distribution_ecs_id" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{7AE20D01-5E7E-4885-8DAA-8A7973B0229F}" name="reseau_collectif" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{F005B1DD-C48C-4C57-9971-1F42741AC520}" name="bouclage_reseau" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{F67A3A5E-5D5C-4F82-A5A0-C2DA2371A19C}" name="alimentation_contigue" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{8AA781C3-4B7D-4CC0-9E5E-356E19D0C5D3}" name="production_volume_habitable" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{22737494-2166-4C25-9328-32242EA6F05C}" name="rd" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{235B164F-DE43-417D-9A0D-D34CB5C6FF97}" name="tv_rendement_distribution_ecs_id" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6F677FB5-1339-47A9-B1F3-14B18D154832}" name="rg" displayName="rg" ref="A1:C5" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6F677FB5-1339-47A9-B1F3-14B18D154832}" name="rg" displayName="rg" ref="A1:C5" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:C5" xr:uid="{6F677FB5-1339-47A9-B1F3-14B18D154832}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{B78D673C-B75D-4799-BEEE-302C95BF0C92}" name="type_generateur" dataDxfId="48"/>
-    <tableColumn id="1" xr3:uid="{5E4EC229-8FB9-4D01-A326-9E2F7927D82C}" name="energie_generateur" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{7E3B7718-E75A-47BF-A6C2-91F702E43BB9}" name="rg" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{B78D673C-B75D-4799-BEEE-302C95BF0C92}" name="type_generateur" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{5E4EC229-8FB9-4D01-A326-9E2F7927D82C}" name="energie_generateur" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{7E3B7718-E75A-47BF-A6C2-91F702E43BB9}" name="rg" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{E396A37A-0428-4188-AB9D-E40997EF4C9A}" name="cr" displayName="cr" ref="A1:E25" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{E396A37A-0428-4188-AB9D-E40997EF4C9A}" name="cr" displayName="cr" ref="A1:E25" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:E25" xr:uid="{E396A37A-0428-4188-AB9D-E40997EF4C9A}"/>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{5753CEFE-0425-4D2C-B178-6CCA60E43B84}" name="type_generateur" dataDxfId="43"/>
-    <tableColumn id="1" xr3:uid="{97AAE6AF-0C71-45EC-9FD3-F899391AA23C}" name="label_generateur" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{300AC58B-BED2-4448-AC5E-31D89903AE67}" name="volume_stockage[gt]" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{B80900C2-B5DA-4612-9EF3-309DBEC6296F}" name="volume_stockage[lte]" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{10BD6FD7-E07B-4F94-9D98-D2D04393F58B}" name="cr" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{5753CEFE-0425-4D2C-B178-6CCA60E43B84}" name="type_generateur" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{97AAE6AF-0C71-45EC-9FD3-F899391AA23C}" name="label_generateur" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{300AC58B-BED2-4448-AC5E-31D89903AE67}" name="volume_stockage[gt]" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{B80900C2-B5DA-4612-9EF3-309DBEC6296F}" name="volume_stockage[lte]" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{10BD6FD7-E07B-4F94-9D98-D2D04393F58B}" name="cr" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{72284DFA-A30B-4B91-911B-94907829334B}" name="cop" displayName="cop" ref="A1:F37" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{72284DFA-A30B-4B91-911B-94907829334B}" name="cop" displayName="cop" ref="A1:F37" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:F37" xr:uid="{72284DFA-A30B-4B91-911B-94907829334B}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{DC725ABA-95F8-449B-9916-EDBA3EB8A2A8}" name="zone_climatique" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{1D7473C6-6BD8-43D0-999F-CED2B5306403}" name="type_generateur" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{AF86E612-1DAD-4CD6-98CF-68E142A84241}" name="annee_installation_generateur[gte]" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{447BB751-24AE-4851-AB17-DE06757CBAB7}" name="annee_installation_generateur[lte]" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{8E556F6E-2ADC-4611-B048-49ECED01C882}" name="cop" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{CFC32D40-A956-49C2-AD99-DFD300BEAD23}" name="tv_scop_id" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{DC725ABA-95F8-449B-9916-EDBA3EB8A2A8}" name="zone_climatique" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{1D7473C6-6BD8-43D0-999F-CED2B5306403}" name="type_generateur" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{AF86E612-1DAD-4CD6-98CF-68E142A84241}" name="annee_installation_generateur[gte]" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{447BB751-24AE-4851-AB17-DE06757CBAB7}" name="annee_installation_generateur[lte]" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{8E556F6E-2ADC-4611-B048-49ECED01C882}" name="cop" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{CFC32D40-A956-49C2-AD99-DFD300BEAD23}" name="tv_scop_id" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{2948178F-DAD4-43CE-BC90-07D9E769A66A}" name="combustion" displayName="combustion" ref="A1:J290" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{2948178F-DAD4-43CE-BC90-07D9E769A66A}" name="combustion" displayName="combustion" ref="A1:J290" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:J290" xr:uid="{2948178F-DAD4-43CE-BC90-07D9E769A66A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J284">
     <sortCondition ref="A1:A284"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="12" xr3:uid="{2AE26893-FDD7-43FC-B211-6BC8753B4E77}" name="type_generateur" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{15C0F3A6-B9A9-4ECD-8048-348161E34424}" name="energie_generateur" dataDxfId="27"/>
-    <tableColumn id="17" xr3:uid="{46FAF120-5E05-4FD5-B158-9756072854D3}" name="annee_installation_generateur[gte]" dataDxfId="26"/>
-    <tableColumn id="16" xr3:uid="{5B9CA74E-3FCC-4533-9111-042A3ED57D6E}" name="annee_installation_generateur[lte]" dataDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{5C10B4E5-A09D-43CF-9E37-7BBB4AD6FB6D}" name="pn[gt]" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{EEF00326-604B-4B2D-BA59-322670D4C1A1}" name="pn[lte]" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{5BE1B517-1EB0-4925-B190-F2570F38168C}" name="pn_max" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{3C166EAE-8A58-4844-A938-9F8A0295DB4A}" name="rpn" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{693AD521-98E5-4841-AAD0-796972BD4508}" name="qp0" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{B051E6CB-1254-4C9C-A889-A80AB3996126}" name="pveilleuse" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{2AE26893-FDD7-43FC-B211-6BC8753B4E77}" name="type_generateur" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{15C0F3A6-B9A9-4ECD-8048-348161E34424}" name="energie_generateur" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{46FAF120-5E05-4FD5-B158-9756072854D3}" name="annee_installation_generateur[gte]" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{5B9CA74E-3FCC-4533-9111-042A3ED57D6E}" name="annee_installation_generateur[lte]" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{5C10B4E5-A09D-43CF-9E37-7BBB4AD6FB6D}" name="pn[gt]" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{EEF00326-604B-4B2D-BA59-322670D4C1A1}" name="pn[lte]" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{5BE1B517-1EB0-4925-B190-F2570F38168C}" name="pn_max" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{3C166EAE-8A58-4844-A938-9F8A0295DB4A}" name="rpn" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{693AD521-98E5-4841-AAD0-796972BD4508}" name="qp0" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{B051E6CB-1254-4C9C-A889-A80AB3996126}" name="pveilleuse" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0492289F-B6A8-4D8B-B037-B62631E1AC2D}" name="fecs" displayName="fecs" ref="A1:G41" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0492289F-B6A8-4D8B-B037-B62631E1AC2D}" name="fecs" displayName="fecs" ref="A1:G41" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G41" xr:uid="{0492289F-B6A8-4D8B-B037-B62631E1AC2D}"/>
   <tableColumns count="7">
-    <tableColumn id="5" xr3:uid="{FFD45113-8D0C-4B34-B130-12374EC5C05C}" name="type_batiment" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{3B03C476-4D1B-4DD1-8386-EE695AE83CE3}" name="zone_climatique" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{546159E9-3F3C-4BBA-A008-E2DE4EC208FE}" name="usage_systeme_solaire" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{5673C0E5-0373-44F3-A5AD-38E170344BB6}" name="anciennete_installation[gt]" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{C926AABC-A39A-438F-8B39-A007A893C91D}" name="anciennete_installation[lte]" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{0CF4DF81-DA56-4CD2-AD72-A7BD18A8182E}" name="fecs" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{9CC3085D-ED1C-4648-ABE0-AB591B469069}" name="tv_facteur_couverture_solaire_id" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{FFD45113-8D0C-4B34-B130-12374EC5C05C}" name="type_batiment" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{3B03C476-4D1B-4DD1-8386-EE695AE83CE3}" name="zone_climatique" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{546159E9-3F3C-4BBA-A008-E2DE4EC208FE}" name="usage_systeme_solaire" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{5673C0E5-0373-44F3-A5AD-38E170344BB6}" name="anciennete_installation[gt]" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{C926AABC-A39A-438F-8B39-A007A893C91D}" name="anciennete_installation[lte]" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{0CF4DF81-DA56-4CD2-AD72-A7BD18A8182E}" name="fecs" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{9CC3085D-ED1C-4648-ABE0-AB591B469069}" name="tv_facteur_couverture_solaire_id" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2931,20 +2931,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{64AFE644-61DB-418D-8927-8E301BCA7AD6}" name="correspondance" displayName="correspondance" ref="A1:H569" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{64AFE644-61DB-418D-8927-8E301BCA7AD6}" name="correspondance" displayName="correspondance" ref="A1:H569" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
   <autoFilter ref="A1:H569" xr:uid="{64AFE644-61DB-418D-8927-8E301BCA7AD6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H554">
     <sortCondition ref="D1:D554"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{7C0BB0BA-E8A8-44C4-8D28-13697323A2C3}" name="table" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{BEDBA65F-4466-4B8B-8CA7-CA2FD37F5FA4}" name="table_id" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{A5331C58-D364-4893-85D3-E196D3C50A43}" name="table_description" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{C7DE6C72-63C4-4301-AC69-3940CC6BB45F}" name="scope" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{5C23E607-7CFE-4C4F-B5D5-2CEBD0E83DFB}" name="enum" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{1B5C5E33-AADC-4F64-BAAC-754297E015AF}" name="attribut" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{239A8AB2-D93D-4A33-A0B9-678CAFF3099F}" name="valeur" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{D4E06198-BE9C-4494-806A-3FDCEA3C5EE3}" name="controle" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{7C0BB0BA-E8A8-44C4-8D28-13697323A2C3}" name="table" dataDxfId="121"/>
+    <tableColumn id="1" xr3:uid="{BEDBA65F-4466-4B8B-8CA7-CA2FD37F5FA4}" name="table_id" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{A5331C58-D364-4893-85D3-E196D3C50A43}" name="table_description" dataDxfId="119"/>
+    <tableColumn id="6" xr3:uid="{C7DE6C72-63C4-4301-AC69-3940CC6BB45F}" name="scope" dataDxfId="118"/>
+    <tableColumn id="9" xr3:uid="{5C23E607-7CFE-4C4F-B5D5-2CEBD0E83DFB}" name="enum" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{1B5C5E33-AADC-4F64-BAAC-754297E015AF}" name="attribut" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{239A8AB2-D93D-4A33-A0B9-678CAFF3099F}" name="valeur" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{D4E06198-BE9C-4494-806A-3FDCEA3C5EE3}" name="controle" dataDxfId="114">
       <calculatedColumnFormula array="1">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2953,24 +2953,24 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F31B636F-6405-4368-90F1-EF26E4DE8860}" name="simulation_becs" displayName="simulation_becs" ref="D1:L14" totalsRowCount="1" headerRowDxfId="123" dataDxfId="122" totalsRowDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F31B636F-6405-4368-90F1-EF26E4DE8860}" name="simulation_becs" displayName="simulation_becs" ref="D1:L14" totalsRowCount="1" headerRowDxfId="113" dataDxfId="112" totalsRowDxfId="111">
   <autoFilter ref="D1:L13" xr:uid="{F31B636F-6405-4368-90F1-EF26E4DE8860}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B5989934-12C1-4EF7-8A8C-3AD6E829DCF9}" name="mois" totalsRowLabel="Total" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="2" xr3:uid="{2AFCE7FB-6DC0-446E-B7B7-70FB26A58884}" name="tefs" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="3" xr3:uid="{FE137FE3-4920-4E2D-86E6-3D2E6F31AF36}" name="nj" dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="8" xr3:uid="{F17BF32B-6F91-4213-8B5F-7CA2639AD166}" name="nref19" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="7" xr3:uid="{3CF90F27-C1DD-4C9D-AD6E-104CB9CDA848}" name="nref21" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{0868101B-7716-440F-9A28-A883688D40EB}" name="becs" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109">
+    <tableColumn id="1" xr3:uid="{B5989934-12C1-4EF7-8A8C-3AD6E829DCF9}" name="mois" totalsRowLabel="Total" dataDxfId="110" totalsRowDxfId="109"/>
+    <tableColumn id="2" xr3:uid="{2AFCE7FB-6DC0-446E-B7B7-70FB26A58884}" name="tefs" dataDxfId="108" totalsRowDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{FE137FE3-4920-4E2D-86E6-3D2E6F31AF36}" name="nj" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="8" xr3:uid="{F17BF32B-6F91-4213-8B5F-7CA2639AD166}" name="nref19" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="7" xr3:uid="{3CF90F27-C1DD-4C9D-AD6E-104CB9CDA848}" name="nref21" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{0868101B-7716-440F-9A28-A883688D40EB}" name="becs" totalsRowFunction="sum" dataDxfId="100" totalsRowDxfId="99">
       <calculatedColumnFormula>1.163 * $B$2 * 56 * (40 - simulation_becs[[#This Row],[tefs]]) * simulation_becs[[#This Row],[nj]] / 1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F4431971-D6F7-44C5-92D7-A874BF4FDFA2}" name="becs_depensier" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="107">
+    <tableColumn id="5" xr3:uid="{F4431971-D6F7-44C5-92D7-A874BF4FDFA2}" name="becs_depensier" totalsRowFunction="sum" dataDxfId="98" totalsRowDxfId="97">
       <calculatedColumnFormula>1.163 * $B$2 * 79 * (40 - simulation_becs[[#This Row],[tefs]]) * simulation_becs[[#This Row],[nj]] / 1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{35B2A9C5-3CC2-4FE4-B34A-39CE9884C2AE}" name="pertes_distribution" totalsRowFunction="sum" dataDxfId="106" totalsRowDxfId="105">
+    <tableColumn id="6" xr3:uid="{35B2A9C5-3CC2-4FE4-B34A-39CE9884C2AE}" name="pertes_distribution" totalsRowFunction="sum" dataDxfId="96" totalsRowDxfId="95">
       <calculatedColumnFormula>((0.5 * $B$4) / $B$3)  * (simulation_becs[[#This Row],[becs]] * 1000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{04C450CD-A7A5-4C1B-80D8-A42F5EF36B3C}" name="pertes_distribution_recup" totalsRowFunction="sum" dataDxfId="104" totalsRowDxfId="103">
+    <tableColumn id="9" xr3:uid="{04C450CD-A7A5-4C1B-80D8-A42F5EF36B3C}" name="pertes_distribution_recup" totalsRowFunction="sum" dataDxfId="94" totalsRowDxfId="93">
       <calculatedColumnFormula>0.48 * simulation_becs[[#This Row],[nref19]] * (simulation_becs[[#This Row],[pertes_distribution]] / 8760)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2979,7 +2979,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{44E5C087-7BAC-432E-B561-7152DA416B34}" name="categorie_generation3" displayName="categorie_generation3" ref="A1:L46" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{44E5C087-7BAC-432E-B561-7152DA416B34}" name="categorie_generation3" displayName="categorie_generation3" ref="A1:L46" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="A1:L46" xr:uid="{44E5C087-7BAC-432E-B561-7152DA416B34}">
     <filterColumn colId="10">
       <filters blank="1"/>
@@ -2989,86 +2989,86 @@
     <sortCondition ref="E1:E46"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="8" xr3:uid="{EDC28213-0C1A-46FD-AABC-4321F4B62184}" name="index" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{49FE03E8-A02B-4A17-A9B7-E72AE3536F6F}" name="type_generateur" dataDxfId="99"/>
-    <tableColumn id="21" xr3:uid="{B1D5CD4F-9E39-4BEE-B6B1-B2BD9282D5BF}" name="controle_type_generateur" dataDxfId="98">
+    <tableColumn id="8" xr3:uid="{EDC28213-0C1A-46FD-AABC-4321F4B62184}" name="index" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{49FE03E8-A02B-4A17-A9B7-E72AE3536F6F}" name="type_generateur" dataDxfId="89"/>
+    <tableColumn id="21" xr3:uid="{B1D5CD4F-9E39-4BEE-B6B1-B2BD9282D5BF}" name="controle_type_generateur" dataDxfId="88">
       <calculatedColumnFormula array="1">INDEX(enums[description],MATCH(1,(enums[enum]="TypeGenerateur")*(enums[const]=categorie_generation3[[#This Row],[type_generateur]]),0),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1A5FE922-C1F8-48D1-9862-7DF53109EA60}" name="energie" dataDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{5BBCF954-03D4-4C84-B78E-1374B911D82A}" name="categorie" dataDxfId="96"/>
-    <tableColumn id="22" xr3:uid="{EE937E5E-2DE9-411D-BDBA-2CDB33CED51E}" name="controle_categorie" dataDxfId="95">
+    <tableColumn id="3" xr3:uid="{1A5FE922-C1F8-48D1-9862-7DF53109EA60}" name="energie" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{5BBCF954-03D4-4C84-B78E-1374B911D82A}" name="categorie" dataDxfId="86"/>
+    <tableColumn id="22" xr3:uid="{EE937E5E-2DE9-411D-BDBA-2CDB33CED51E}" name="controle_categorie" dataDxfId="85">
       <calculatedColumnFormula array="1">INDEX(enums[description],MATCH(1,(enums[enum]="CategorieGenerateur")*(enums[const]=categorie_generation3[[#This Row],[categorie]]),0),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{64B667C5-4A23-4E0E-9D11-2E34CF84ACD2}" name="stockage_integre" dataDxfId="94"/>
-    <tableColumn id="5" xr3:uid="{01CADCDB-D241-4495-A29A-FDFF9D0C9EA6}" name="effet_joule" dataDxfId="93"/>
-    <tableColumn id="12" xr3:uid="{078A7910-F7B2-4AE0-A585-1BAD7D727204}" name="enr" dataDxfId="92"/>
-    <tableColumn id="10" xr3:uid="{446DAFB7-C4B9-4649-8040-19691C97BFF6}" name="collectif" dataDxfId="91"/>
-    <tableColumn id="7" xr3:uid="{59BD03D4-43BA-40E8-B880-B1FE2CAD5E69}" name="signaletique" dataDxfId="90"/>
-    <tableColumn id="6" xr3:uid="{39A1D852-D5F2-44C7-8D9B-1A907CC2D3D5}" name="usage_mixte" dataDxfId="89"/>
+    <tableColumn id="19" xr3:uid="{64B667C5-4A23-4E0E-9D11-2E34CF84ACD2}" name="stockage_integre" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{01CADCDB-D241-4495-A29A-FDFF9D0C9EA6}" name="effet_joule" dataDxfId="83"/>
+    <tableColumn id="12" xr3:uid="{078A7910-F7B2-4AE0-A585-1BAD7D727204}" name="enr" dataDxfId="82"/>
+    <tableColumn id="10" xr3:uid="{446DAFB7-C4B9-4649-8040-19691C97BFF6}" name="collectif" dataDxfId="81"/>
+    <tableColumn id="7" xr3:uid="{59BD03D4-43BA-40E8-B880-B1FE2CAD5E69}" name="signaletique" dataDxfId="80"/>
+    <tableColumn id="6" xr3:uid="{39A1D852-D5F2-44C7-8D9B-1A907CC2D3D5}" name="usage_mixte" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8C369462-A814-44B6-9CC3-4368327A9118}" name="signaletique" displayName="signaletique" ref="A1:F10" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8C369462-A814-44B6-9CC3-4368327A9118}" name="signaletique" displayName="signaletique" ref="A1:F10" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="A1:F10" xr:uid="{8C369462-A814-44B6-9CC3-4368327A9118}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F9">
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{166DA1CA-44F8-4F57-A24A-1D62EB4324C4}" name="attribut" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{255065F0-2D8D-42CB-BC3C-E3E42AA14F57}" name="chaudiere" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{C1D4F8A5-684B-4CCA-8FC3-0C33921E32A2}" name="chaudiere_electrique" dataDxfId="84"/>
-    <tableColumn id="3" xr3:uid="{6A9CD9F1-A64A-4A6F-A5CB-4BAEA0D27BFA}" name="combustion" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{4F012D10-0A07-4F67-A149-82C391D09564}" name="electricite" dataDxfId="82"/>
-    <tableColumn id="6" xr3:uid="{886B2C48-EE9F-41EC-974F-6D9D99693622}" name="thermodynamique" dataDxfId="81"/>
+    <tableColumn id="1" xr3:uid="{166DA1CA-44F8-4F57-A24A-1D62EB4324C4}" name="attribut" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{255065F0-2D8D-42CB-BC3C-E3E42AA14F57}" name="chaudiere" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{C1D4F8A5-684B-4CCA-8FC3-0C33921E32A2}" name="chaudiere_electrique" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{6A9CD9F1-A64A-4A6F-A5CB-4BAEA0D27BFA}" name="combustion" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{4F012D10-0A07-4F67-A149-82C391D09564}" name="electricite" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{886B2C48-EE9F-41EC-974F-6D9D99693622}" name="thermodynamique" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{79F3CE64-8310-44FD-B3F1-7640D6B70152}" name="systeme" displayName="systeme" ref="A1:D15" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{79F3CE64-8310-44FD-B3F1-7640D6B70152}" name="systeme" displayName="systeme" ref="A1:D15" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <autoFilter ref="A1:D15" xr:uid="{79F3CE64-8310-44FD-B3F1-7640D6B70152}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D15">
     <sortCondition ref="A1:A16"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{F408E700-B27F-4322-96C0-9934347862E5}" name="categorie" dataDxfId="78"/>
-    <tableColumn id="23" xr3:uid="{A9F489EF-190B-4843-ACB5-2A676D912B00}" name="rendement" dataDxfId="77"/>
-    <tableColumn id="7" xr3:uid="{09D14DFE-33DD-4DA7-A8B1-1276D0A26440}" name="combustion" dataDxfId="76"/>
-    <tableColumn id="9" xr3:uid="{0069BA72-065F-4425-B23F-800F2D48AB65}" name="position_volume_chauffe" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{F408E700-B27F-4322-96C0-9934347862E5}" name="categorie" dataDxfId="68"/>
+    <tableColumn id="23" xr3:uid="{A9F489EF-190B-4843-ACB5-2A676D912B00}" name="rendement" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{09D14DFE-33DD-4DA7-A8B1-1276D0A26440}" name="combustion" dataDxfId="66"/>
+    <tableColumn id="9" xr3:uid="{0069BA72-065F-4425-B23F-800F2D48AB65}" name="position_volume_chauffe" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04BF916E-686C-4586-AEA9-B5DAD2362716}" name="pn" displayName="pn" ref="A1:G28" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04BF916E-686C-4586-AEA9-B5DAD2362716}" name="pn" displayName="pn" ref="A1:G28" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="A1:G28" xr:uid="{04BF916E-686C-4586-AEA9-B5DAD2362716}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{27319E77-5DA8-4082-90E6-C4AE3614C732}" name="type_chaudiere" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{F703F73A-F68C-4A96-A5E1-FFFE8EB82D22}" name="pdim[gt]" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{104A2301-A8F3-4CEB-9005-6DE260EB6963}" name="pdim[lte]" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{0477AD48-FA37-4407-A072-01110C3B3265}" name="annee_installation[gt]" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{B5FFCD4F-36E5-4479-BDD8-A08754C4F77F}" name="annee_installation[lte]" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{9F1CA9BF-96E7-4870-94D0-8E587EF744B6}" name="pn" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{BA4CFA1C-1EEB-405C-89B1-8BD5116BBC82}" name="type_chaudiere_defaut" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{27319E77-5DA8-4082-90E6-C4AE3614C732}" name="type_chaudiere" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{F703F73A-F68C-4A96-A5E1-FFFE8EB82D22}" name="pdim[gt]" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{104A2301-A8F3-4CEB-9005-6DE260EB6963}" name="pdim[lte]" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{0477AD48-FA37-4407-A072-01110C3B3265}" name="annee_installation[gt]" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{B5FFCD4F-36E5-4479-BDD8-A08754C4F77F}" name="annee_installation[lte]" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{9F1CA9BF-96E7-4870-94D0-8E587EF744B6}" name="pn" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{BA4CFA1C-1EEB-405C-89B1-8BD5116BBC82}" name="type_chaudiere_defaut" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8F0A5D27-9F08-4110-B047-B54E6DEDC2A8}" name="categorie_generation379" displayName="categorie_generation379" ref="A1:E17" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8F0A5D27-9F08-4110-B047-B54E6DEDC2A8}" name="categorie_generation379" displayName="categorie_generation379" ref="A1:E17" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A1:E17" xr:uid="{8F0A5D27-9F08-4110-B047-B54E6DEDC2A8}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{79611F10-EF46-4C95-818A-5BE97C4B9662}" name="categorie_generateur" dataDxfId="63"/>
-    <tableColumn id="9" xr3:uid="{2B735C60-22B6-4E87-B80F-465A9F8AAB30}" name="presence_ventouse" dataDxfId="62"/>
-    <tableColumn id="1" xr3:uid="{10D4669A-5225-4EAF-ABFA-05B69FC2DA3C}" name="G" dataDxfId="61"/>
-    <tableColumn id="10" xr3:uid="{C2B8BBF4-B3DD-48AF-9725-8276F5E85B68}" name="H" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{CB15252B-1A5C-45A3-BE3A-7FE7BA486551}" name="pn_max" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{79611F10-EF46-4C95-818A-5BE97C4B9662}" name="categorie_generateur" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{2B735C60-22B6-4E87-B80F-465A9F8AAB30}" name="presence_ventouse" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{10D4669A-5225-4EAF-ABFA-05B69FC2DA3C}" name="G" dataDxfId="51"/>
+    <tableColumn id="10" xr3:uid="{C2B8BBF4-B3DD-48AF-9725-8276F5E85B68}" name="H" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{CB15252B-1A5C-45A3-BE3A-7FE7BA486551}" name="pn_max" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6841,8 +6841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AD4C67-DFBB-4FA1-9680-23F284625215}">
   <dimension ref="A1:J290"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A285" sqref="A285:J290"/>
+    <sheetView topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13914,8 +13914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48081788-2F17-4460-A6A6-B2B93EE390AC}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33182,8 +33182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CED1A62-520F-4A95-955C-CE5F874596CD}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33242,7 +33242,7 @@
         <v>343</v>
       </c>
       <c r="B3" s="3">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>10</v>
@@ -33416,7 +33416,7 @@
         <v>343</v>
       </c>
       <c r="B12" s="3">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3">
         <v>10</v>
@@ -33587,7 +33587,7 @@
         <v>344</v>
       </c>
       <c r="B21" s="3">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
         <v>10</v>
